--- a/migforecasting/less100/tests/test-4.xlsx
+++ b/migforecasting/less100/tests/test-4.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="ThisYear" sheetId="1" r:id="rId1"/>
+    <sheet name="NextYear" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +19,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t>Random Forest-100 (citiesdataset-Dcor-4.csv) - next year, without dollar</t>
+  </si>
+  <si>
+    <t>test input (MAPE)</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Old input</t>
+  </si>
+  <si>
+    <t>Input60</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (citiesdataset-Dcor-4.csv) - next year, without dollar, здравохранения, квартир, фондов и предприятий</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +94,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +127,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +167,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +207,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,9 +389,892 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:K58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.1481210605466057</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5.5255428545068126</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>13.85994804453242</v>
+      </c>
+      <c r="J7" s="2">
+        <f>J6+1</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>8.4812690371302804</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C55" si="0">C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>14.69774262508931</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ref="J8:J55" si="1">J7+1</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9.6399431328745386</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>13.534942106117629</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.1909421853909619</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13.59123562106064</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>8.9864538547049122</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>13.0628911445291</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K11" s="3">
+        <v>8.8086066089528714</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.3450509632131133</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6.8591751950739042</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>13.40164592170431</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K13" s="3">
+        <v>7.1072733297194493</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10.49650927075284</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K14" s="3">
+        <v>8.7774154873708454</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>14.96009619585775</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K15" s="3">
+        <v>7.8425956621343618</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10.58298944690169</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K16" s="3">
+        <v>7.9658733430382416</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>16.572055498155368</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K17" s="3">
+        <v>7.6698551838365088</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10.068455035771089</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="K18" s="3">
+        <v>7.3055599836547147</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>15.095852125560061</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K19" s="3">
+        <v>8.7059713546853779</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>14.580532115294931</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K20" s="3">
+        <v>9.5423257420114815</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>13.594522798108059</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
+        <v>7.81636726123706</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>12.19523209925158</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K22" s="3">
+        <v>6.334071609133467</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7.5687056569431732</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K23" s="3">
+        <v>6.1818493806782282</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="3">
+        <v>11.826297189771889</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K24" s="3">
+        <v>8.9151675512011739</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>20.979144368651809</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K25" s="3">
+        <v>10.28595546453278</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6.6869997184492256</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K26" s="3">
+        <v>8.5169738117672456</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>12.6741228221226</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="K27" s="3">
+        <v>5.9959882973966891</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <v>14.473228843935541</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K28" s="3">
+        <v>6.2413798055835317</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5.671760382146469</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
+        <v>9.539441283655524</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D30" s="3">
+        <v>18.158375409760279</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="K30" s="3">
+        <v>7.6497904510869379</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D31" s="3">
+        <v>13.141445055348109</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K31" s="3">
+        <v>9.370843677352763</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D32" s="3">
+        <v>13.346927645623801</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K32" s="3">
+        <v>10.02224585915507</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="3">
+        <v>16.188037804052939</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="K33" s="3">
+        <v>7.7368967836498772</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D34" s="3">
+        <v>12.95175101188851</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="K34" s="3">
+        <v>10.320781145810059</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D35" s="3">
+        <v>13.855968371133759</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K35" s="3">
+        <v>7.6194116600115338</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10.005451344738191</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="K36" s="3">
+        <v>8.8011915926335789</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D37" s="3">
+        <v>13.900603759205341</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K37" s="3">
+        <v>7.4011454616565908</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D38" s="3">
+        <v>11.83244859385184</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="K38" s="3">
+        <v>8.2943591175278915</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D39" s="3">
+        <v>15.07161662992092</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="K39" s="3">
+        <v>8.2588524379497201</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D40" s="3">
+        <v>9.7514383208474786</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K40" s="3">
+        <v>6.1444545463703353</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>7.1759526938350966</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K41" s="3">
+        <v>7.9991131756370821</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D42" s="3">
+        <v>15.374485602035829</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="K42" s="3">
+        <v>8.6709620902330329</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D43" s="3">
+        <v>13.820234635034559</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="K43" s="3">
+        <v>7.2982508772931283</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D44" s="3">
+        <v>15.24218224773244</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="K44" s="3">
+        <v>9.4864530878054403</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D45" s="3">
+        <v>16.678039794780791</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K45" s="3">
+        <v>6.3003220779227158</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D46" s="3">
+        <v>10.88595419114036</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="K46" s="3">
+        <v>7.4922137393950186</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D47" s="3">
+        <v>8.176823114886588</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="K47" s="3">
+        <v>6.0802827766057268</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D48" s="3">
+        <v>6.1285308034506896</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="K48" s="3">
+        <v>8.3403621614661105</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8.4374582739136699</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="K49" s="3">
+        <v>9.9966564264081317</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D50" s="3">
+        <v>17.46714983719237</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="K50" s="3">
+        <v>8.5367706226991569</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D51" s="3">
+        <v>12.02035334191277</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K51" s="3">
+        <v>9.7371735401117707</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D52" s="3">
+        <v>10.042343746622301</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="K52" s="3">
+        <v>7.5075155449844724</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D53" s="3">
+        <v>11.22729204082408</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="K53" s="3">
+        <v>6.0111245512190452</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D54" s="3">
+        <v>5.9984896735634372</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="K54" s="3">
+        <v>8.8741432612013789</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D55" s="3">
+        <v>9.5490284786513442</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K55" s="3">
+        <v>5.9835221294288106</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3">
+        <f>AVERAGE(D6:D55)</f>
+        <v>12.161929269528295</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" s="3">
+        <f>AVERAGE(K6:K55)</f>
+        <v>7.9434167243177276</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3">
+        <f>_xlfn.STDEV.S(D6:D55)</f>
+        <v>3.5638395057567669</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
+        <f>_xlfn.STDEV.S(K6:K55)</f>
+        <v>1.3986178872752852</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/migforecasting/less100/tests/test-4.xlsx
+++ b/migforecasting/less100/tests/test-4.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="ThisYear" sheetId="1" r:id="rId1"/>
-    <sheet name="NextYear" sheetId="2" r:id="rId2"/>
+    <sheet name="ThisYear and NextYear" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>Random Forest-100 (citiesdataset-Dcor-4.csv) - next year, without dollar</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>test input (MAPE)</t>
   </si>
@@ -40,7 +36,16 @@
     <t>Input60</t>
   </si>
   <si>
-    <t>Random Forest-100 (citiesdataset-Dcor-4.csv) - next year, without dollar, здравохранения, квартир, фондов и предприятий</t>
+    <t>Random Forest-100 (citiesdataset-NYDcor-4.csv) - next year, without dollar</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (citiesdataset-NYDcor-4.csv) - next year, without dollar, здравохранения, квартир, фондов и предприятий</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (citiesdataset-Dcor-4.csv) - this year year, without dollar</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (citiesdataset-Dcor-4.csv) - this year, without dollar, здравохранения, квартир, фондов и предприятий</t>
   </si>
 </sst>
 </file>
@@ -389,21 +394,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K58"/>
+  <dimension ref="C3:AC58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE38" sqref="AE38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -412,28 +419,48 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -446,8 +473,20 @@
       <c r="K6" s="3">
         <v>5.5255428545068126</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>10.90362530685224</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>6.3439569452163269</v>
+      </c>
+    </row>
+    <row r="7" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -462,8 +501,22 @@
       <c r="K7" s="3">
         <v>8.4812690371302804</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U7" s="2">
+        <f>U6+1</f>
+        <v>2</v>
+      </c>
+      <c r="V7" s="3">
+        <v>12.42204485452144</v>
+      </c>
+      <c r="AB7" s="2">
+        <f>AB6+1</f>
+        <v>2</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>6.5784022171162277</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C55" si="0">C7+1</f>
         <v>3</v>
@@ -478,8 +531,22 @@
       <c r="K8" s="3">
         <v>9.6399431328745386</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U8" s="2">
+        <f t="shared" ref="U8:U55" si="2">U7+1</f>
+        <v>3</v>
+      </c>
+      <c r="V8" s="3">
+        <v>4.5973140507492722</v>
+      </c>
+      <c r="AB8" s="2">
+        <f t="shared" ref="AB8:AB55" si="3">AB7+1</f>
+        <v>3</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>5.1258022279184168</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -494,8 +561,22 @@
       <c r="K9" s="3">
         <v>4.1909421853909619</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
+        <v>4.5788627983290873</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>3.8240654192179968</v>
+      </c>
+    </row>
+    <row r="10" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -510,8 +591,22 @@
       <c r="K10" s="3">
         <v>8.9864538547049122</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
+        <v>7.5323644799975931</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>5.2662878671805267</v>
+      </c>
+    </row>
+    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -526,8 +621,22 @@
       <c r="K11" s="3">
         <v>8.8086066089528714</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="V11" s="3">
+        <v>8.7523088503065551</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>3.488595342103574</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -542,8 +651,22 @@
       <c r="K12" s="3">
         <v>6.8591751950739042</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="V12" s="3">
+        <v>4.903761287263996</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>4.7198807285180564</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -558,8 +681,22 @@
       <c r="K13" s="3">
         <v>7.1072733297194493</v>
       </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="V13" s="3">
+        <v>13.92381140107952</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>4.8965739779444357</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -574,8 +711,22 @@
       <c r="K14" s="3">
         <v>8.7774154873708454</v>
       </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="V14" s="3">
+        <v>9.9741223744419258</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>5.0638289177719251</v>
+      </c>
+    </row>
+    <row r="15" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -590,8 +741,22 @@
       <c r="K15" s="3">
         <v>7.8425956621343618</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="V15" s="3">
+        <v>10.20910453161833</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>4.0670096454206366</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -606,8 +771,22 @@
       <c r="K16" s="3">
         <v>7.9658733430382416</v>
       </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V16" s="3">
+        <v>8.1758662998622338</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>4.0801389930525316</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -622,8 +801,22 @@
       <c r="K17" s="3">
         <v>7.6698551838365088</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="V17" s="3">
+        <v>9.2620327400127245</v>
+      </c>
+      <c r="AB17" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>4.3849978154126177</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -638,8 +831,22 @@
       <c r="K18" s="3">
         <v>7.3055599836547147</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V18" s="3">
+        <v>11.40130105202989</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>5.9709630085166152</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -654,8 +861,22 @@
       <c r="K19" s="3">
         <v>8.7059713546853779</v>
       </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V19" s="3">
+        <v>12.25219290692975</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>3.6112540415466028</v>
+      </c>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -670,8 +891,22 @@
       <c r="K20" s="3">
         <v>9.5423257420114815</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V20" s="3">
+        <v>8.844173746141422</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>5.1452804582357201</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -686,8 +921,22 @@
       <c r="K21" s="3">
         <v>7.81636726123706</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
+        <v>13.27048256528418</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>4.1966770886878431</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -702,8 +951,22 @@
       <c r="K22" s="3">
         <v>6.334071609133467</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="V22" s="3">
+        <v>8.7221752827327048</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>6.7120594901853607</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -718,8 +981,22 @@
       <c r="K23" s="3">
         <v>6.1818493806782282</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="V23" s="3">
+        <v>8.9171295071698324</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>4.3287615113481506</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -734,8 +1011,22 @@
       <c r="K24" s="3">
         <v>8.9151675512011739</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="V24" s="3">
+        <v>3.9138174007845268</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>5.1982881567088972</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -750,8 +1041,22 @@
       <c r="K25" s="3">
         <v>10.28595546453278</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="V25" s="3">
+        <v>7.3497429943066788</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>4.0138514346091521</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -766,8 +1071,22 @@
       <c r="K26" s="3">
         <v>8.5169738117672456</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="V26" s="3">
+        <v>8.3075357741314697</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>4.0425497716584466</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -782,8 +1101,22 @@
       <c r="K27" s="3">
         <v>5.9959882973966891</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U27" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="V27" s="3">
+        <v>4.939855699885209</v>
+      </c>
+      <c r="AB27" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>6.1936983423564698</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -798,8 +1131,22 @@
       <c r="K28" s="3">
         <v>6.2413798055835317</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U28" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="V28" s="3">
+        <v>4.0018031132997436</v>
+      </c>
+      <c r="AB28" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>4.6722322128737552</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -814,8 +1161,22 @@
       <c r="K29" s="3">
         <v>9.539441283655524</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U29" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
+        <v>5.0418990296603994</v>
+      </c>
+      <c r="AB29" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>3.9321405315148299</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -830,8 +1191,22 @@
       <c r="K30" s="3">
         <v>7.6497904510869379</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U30" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="V30" s="3">
+        <v>9.3883661600352077</v>
+      </c>
+      <c r="AB30" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>3.7253200699327489</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -846,8 +1221,22 @@
       <c r="K31" s="3">
         <v>9.370843677352763</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="V31" s="3">
+        <v>10.93895967528193</v>
+      </c>
+      <c r="AB31" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>5.8917632679430634</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -862,8 +1251,22 @@
       <c r="K32" s="3">
         <v>10.02224585915507</v>
       </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="V32" s="3">
+        <v>9.5617662659586529</v>
+      </c>
+      <c r="AB32" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>6.0119221052694387</v>
+      </c>
+    </row>
+    <row r="33" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -878,8 +1281,22 @@
       <c r="K33" s="3">
         <v>7.7368967836498772</v>
       </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U33" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="V33" s="3">
+        <v>5.2675977408781236</v>
+      </c>
+      <c r="AB33" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>6.3059982966995847</v>
+      </c>
+    </row>
+    <row r="34" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -894,8 +1311,22 @@
       <c r="K34" s="3">
         <v>10.320781145810059</v>
       </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U34" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="V34" s="3">
+        <v>5.4306584708782903</v>
+      </c>
+      <c r="AB34" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>4.6646465355334668</v>
+      </c>
+    </row>
+    <row r="35" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -910,8 +1341,22 @@
       <c r="K35" s="3">
         <v>7.6194116600115338</v>
       </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U35" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="V35" s="3">
+        <v>5.6918593857999724</v>
+      </c>
+      <c r="AB35" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>4.9014234534385333</v>
+      </c>
+    </row>
+    <row r="36" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -926,8 +1371,22 @@
       <c r="K36" s="3">
         <v>8.8011915926335789</v>
       </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U36" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="V36" s="3">
+        <v>11.2776015018172</v>
+      </c>
+      <c r="AB36" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>5.9797209369940214</v>
+      </c>
+    </row>
+    <row r="37" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -942,8 +1401,22 @@
       <c r="K37" s="3">
         <v>7.4011454616565908</v>
       </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="V37" s="3">
+        <v>12.93812635560043</v>
+      </c>
+      <c r="AB37" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>5.792382727507662</v>
+      </c>
+    </row>
+    <row r="38" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -958,8 +1431,22 @@
       <c r="K38" s="3">
         <v>8.2943591175278915</v>
       </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="V38" s="3">
+        <v>11.25649287745936</v>
+      </c>
+      <c r="AB38" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>4.9436380826786142</v>
+      </c>
+    </row>
+    <row r="39" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -974,8 +1461,22 @@
       <c r="K39" s="3">
         <v>8.2588524379497201</v>
       </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U39" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="V39" s="3">
+        <v>10.44551168014508</v>
+      </c>
+      <c r="AB39" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>5.7337633763996454</v>
+      </c>
+    </row>
+    <row r="40" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -990,8 +1491,22 @@
       <c r="K40" s="3">
         <v>6.1444545463703353</v>
       </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U40" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="V40" s="3">
+        <v>6.0972180997663372</v>
+      </c>
+      <c r="AB40" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>4.5596540921271753</v>
+      </c>
+    </row>
+    <row r="41" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1006,8 +1521,22 @@
       <c r="K41" s="3">
         <v>7.9991131756370821</v>
       </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="V41" s="3">
+        <v>15.043249325884201</v>
+      </c>
+      <c r="AB41" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>4.5176835221616498</v>
+      </c>
+    </row>
+    <row r="42" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1022,8 +1551,22 @@
       <c r="K42" s="3">
         <v>8.6709620902330329</v>
       </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="V42" s="3">
+        <v>18.560516454209552</v>
+      </c>
+      <c r="AB42" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>5.4713672306269023</v>
+      </c>
+    </row>
+    <row r="43" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1038,8 +1581,22 @@
       <c r="K43" s="3">
         <v>7.2982508772931283</v>
       </c>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="V43" s="3">
+        <v>14.540759719282899</v>
+      </c>
+      <c r="AB43" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>7.6901522341726434</v>
+      </c>
+    </row>
+    <row r="44" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1054,8 +1611,22 @@
       <c r="K44" s="3">
         <v>9.4864530878054403</v>
       </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="V44" s="3">
+        <v>4.74827986861865</v>
+      </c>
+      <c r="AB44" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>6.0697946038583011</v>
+      </c>
+    </row>
+    <row r="45" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1070,8 +1641,22 @@
       <c r="K45" s="3">
         <v>6.3003220779227158</v>
       </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="V45" s="3">
+        <v>10.43315762436843</v>
+      </c>
+      <c r="AB45" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>3.495243033910119</v>
+      </c>
+    </row>
+    <row r="46" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1086,8 +1671,22 @@
       <c r="K46" s="3">
         <v>7.4922137393950186</v>
       </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="V46" s="3">
+        <v>16.564514605700229</v>
+      </c>
+      <c r="AB46" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>3.3507122042945379</v>
+      </c>
+    </row>
+    <row r="47" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1102,8 +1701,22 @@
       <c r="K47" s="3">
         <v>6.0802827766057268</v>
       </c>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="V47" s="3">
+        <v>8.133201242903116</v>
+      </c>
+      <c r="AB47" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>5.6716234844698228</v>
+      </c>
+    </row>
+    <row r="48" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1118,8 +1731,22 @@
       <c r="K48" s="3">
         <v>8.3403621614661105</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="V48" s="3">
+        <v>5.1993347874744096</v>
+      </c>
+      <c r="AB48" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>6.5354198051125696</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1134,8 +1761,22 @@
       <c r="K49" s="3">
         <v>9.9966564264081317</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="V49" s="3">
+        <v>10.799048376286329</v>
+      </c>
+      <c r="AB49" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>5.9281584144604409</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1150,8 +1791,22 @@
       <c r="K50" s="3">
         <v>8.5367706226991569</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="V50" s="3">
+        <v>9.5063245707167763</v>
+      </c>
+      <c r="AB50" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>3.7551740058713809</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1166,8 +1821,22 @@
       <c r="K51" s="3">
         <v>9.7371735401117707</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="V51" s="3">
+        <v>4.1968492251492062</v>
+      </c>
+      <c r="AB51" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>3.6610938081545852</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1182,8 +1851,22 @@
       <c r="K52" s="3">
         <v>7.5075155449844724</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="V52" s="3">
+        <v>15.19497327700625</v>
+      </c>
+      <c r="AB52" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>5.8907241142398226</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1198,8 +1881,22 @@
       <c r="K53" s="3">
         <v>6.0111245512190452</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="V53" s="3">
+        <v>10.24440367090425</v>
+      </c>
+      <c r="AB53" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>4.1665411501256964</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1214,8 +1911,22 @@
       <c r="K54" s="3">
         <v>8.8741432612013789</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="V54" s="3">
+        <v>7.8743767480355089</v>
+      </c>
+      <c r="AB54" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>4.3969336595682433</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1230,54 +1941,82 @@
       <c r="K55" s="3">
         <v>5.9835221294288106</v>
       </c>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="V55" s="3">
+        <v>9.3948227279299132</v>
+      </c>
+      <c r="AB55" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>5.2757479931318736</v>
+      </c>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="3">
         <f>AVERAGE(D6:D55)</f>
         <v>12.161929269528295</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57" s="3">
         <f>AVERAGE(K6:K55)</f>
         <v>7.9434167243177276</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="U57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V57" s="3">
+        <f>AVERAGE(V6:V55)</f>
+        <v>9.2185059697096214</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="3">
+        <f>AVERAGE(AC6:AC55)</f>
+        <v>5.004877967075954</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" s="3">
         <f>_xlfn.STDEV.S(D6:D55)</f>
         <v>3.5638395057567669</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K58" s="3">
         <f>_xlfn.STDEV.S(K6:K55)</f>
         <v>1.3986178872752852</v>
       </c>
+      <c r="U58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V58" s="3">
+        <f>_xlfn.STDEV.S(V6:V55)</f>
+        <v>3.5467676138490525</v>
+      </c>
+      <c r="AB58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC58" s="3">
+        <f>_xlfn.STDEV.S(AC6:AC55)</f>
+        <v>1.0312948556882169</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/migforecasting/less100/tests/test-4.xlsx
+++ b/migforecasting/less100/tests/test-4.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="ThisYear and NextYear" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -129,6 +132,1124 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1"/>
+              <a:t>Прогноз миграции на малых городах РФ (ЛО</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1" baseline="0"/>
+              <a:t> И РО)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1"/>
+              <a:t>Среднее отклонение по </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>MAPE</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]NextYear and ThisYear'!$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]NextYear and ThisYear'!$F$62:$G$62</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Next Year</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>This Year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('ThisYear and NextYear'!$AC$57,'ThisYear and NextYear'!$K$57)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.004877967075954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9434167243177276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD83-4DD4-874D-CC9C7A6E0A67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]NextYear and ThisYear'!$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]NextYear and ThisYear'!$F$62:$G$62</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Next Year</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>This Year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('ThisYear and NextYear'!$AC$58,'ThisYear and NextYear'!$K$58)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0312948556882169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3986178872752852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD83-4DD4-874D-CC9C7A6E0A67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="1209861695"/>
+        <c:axId val="1209860863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1209861695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1209860863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1209860863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1209861695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>570139</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>36739</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NextYear and ThisYear"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="62">
+          <cell r="F62" t="str">
+            <v>Next Year</v>
+          </cell>
+          <cell r="G62" t="str">
+            <v>This Year</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="E63" t="str">
+            <v>Avg</v>
+          </cell>
+          <cell r="F63">
+            <v>9.2185059697096214</v>
+          </cell>
+          <cell r="G63">
+            <v>12.161929269528295</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="E64" t="str">
+            <v>SD</v>
+          </cell>
+          <cell r="F64">
+            <v>3.5467676138490525</v>
+          </cell>
+          <cell r="G64">
+            <v>3.5638395057567669</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE38" sqref="AE38"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y73" sqref="Y73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,5 +3139,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/migforecasting/less100/tests/test-4.xlsx
+++ b/migforecasting/less100/tests/test-4.xlsx
@@ -1228,22 +1228,10 @@
           <cell r="E63" t="str">
             <v>Avg</v>
           </cell>
-          <cell r="F63">
-            <v>9.2185059697096214</v>
-          </cell>
-          <cell r="G63">
-            <v>12.161929269528295</v>
-          </cell>
         </row>
         <row r="64">
           <cell r="E64" t="str">
             <v>SD</v>
-          </cell>
-          <cell r="F64">
-            <v>3.5467676138490525</v>
-          </cell>
-          <cell r="G64">
-            <v>3.5638395057567669</v>
           </cell>
         </row>
       </sheetData>
@@ -1517,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y73" sqref="Y73"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="3:29" x14ac:dyDescent="0.25">

--- a/migforecasting/less100/tests/test-4.xlsx
+++ b/migforecasting/less100/tests/test-4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>test input (MAPE)</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Random Forest-100 (citiesdataset-Dcor-4.csv) - this year, without dollar, здравохранения, квартир, фондов и предприятий</t>
+  </si>
+  <si>
+    <t>test input (MAE)</t>
+  </si>
+  <si>
+    <t>test input (MSE)</t>
   </si>
 </sst>
 </file>
@@ -102,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -115,6 +121,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1503,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:AC58"/>
+  <dimension ref="C3:AM58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="O19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y61" sqref="Y61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1527,7 @@
     <col min="29" max="29" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1536,8 +1546,14 @@
       <c r="AC3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AH3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1550,8 +1566,14 @@
       <c r="AB4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
@@ -1568,8 +1590,16 @@
       <c r="AC5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -1594,8 +1624,20 @@
       <c r="AC6" s="3">
         <v>6.3439569452163269</v>
       </c>
-    </row>
-    <row r="7" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>746.91081256905454</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>1.6140154476273799E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -1624,8 +1666,22 @@
       <c r="AC7" s="3">
         <v>6.5784022171162277</v>
       </c>
-    </row>
-    <row r="8" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG7" s="2">
+        <f>AG6+1</f>
+        <v>2</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>708.1562602392645</v>
+      </c>
+      <c r="AL7" s="2">
+        <f>AL6+1</f>
+        <v>2</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>1.3772163395611541E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C55" si="0">C7+1</f>
         <v>3</v>
@@ -1654,8 +1710,22 @@
       <c r="AC8" s="3">
         <v>5.1258022279184168</v>
       </c>
-    </row>
-    <row r="9" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG8" s="2">
+        <f t="shared" ref="AG8:AG55" si="4">AG7+1</f>
+        <v>3</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>628.57908422867274</v>
+      </c>
+      <c r="AL8" s="2">
+        <f t="shared" ref="AL8:AL55" si="5">AL7+1</f>
+        <v>3</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>1.386969331372834E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1684,8 +1754,22 @@
       <c r="AC9" s="3">
         <v>3.8240654192179968</v>
       </c>
-    </row>
-    <row r="10" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG9" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>574.7496997275872</v>
+      </c>
+      <c r="AL9" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>1.6080590423016179E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1714,8 +1798,22 @@
       <c r="AC10" s="3">
         <v>5.2662878671805267</v>
       </c>
-    </row>
-    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG10" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>610.72744761305944</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>1.6430644579627279E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1744,8 +1842,22 @@
       <c r="AC11" s="3">
         <v>3.488595342103574</v>
       </c>
-    </row>
-    <row r="12" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG11" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>646.40671672000519</v>
+      </c>
+      <c r="AL11" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>1.4044672013897341E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1774,8 +1886,22 @@
       <c r="AC12" s="3">
         <v>4.7198807285180564</v>
       </c>
-    </row>
-    <row r="13" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG12" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>570.63138730140497</v>
+      </c>
+      <c r="AL12" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>1.5088145005580061E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1804,8 +1930,22 @@
       <c r="AC13" s="3">
         <v>4.8965739779444357</v>
       </c>
-    </row>
-    <row r="14" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG13" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>646.31150636263123</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>1.5334949659514109E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1834,8 +1974,22 @@
       <c r="AC14" s="3">
         <v>5.0638289177719251</v>
       </c>
-    </row>
-    <row r="15" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG14" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>597.7951684001971</v>
+      </c>
+      <c r="AL14" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>1.453660986884915E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1864,8 +2018,22 @@
       <c r="AC15" s="3">
         <v>4.0670096454206366</v>
       </c>
-    </row>
-    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG15" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>625.44629476701994</v>
+      </c>
+      <c r="AL15" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>1.7330786882314079E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1894,8 +2062,22 @@
       <c r="AC16" s="3">
         <v>4.0801389930525316</v>
       </c>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG16" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>629.61936383205625</v>
+      </c>
+      <c r="AL16" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>1.410205244742345E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1924,8 +2106,22 @@
       <c r="AC17" s="3">
         <v>4.3849978154126177</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG17" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>652.89179925324709</v>
+      </c>
+      <c r="AL17" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>1.748113676672342E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1954,8 +2150,22 @@
       <c r="AC18" s="3">
         <v>5.9709630085166152</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG18" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>668.01162885282042</v>
+      </c>
+      <c r="AL18" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="AM18" s="7">
+        <v>1.670369581340405E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1984,8 +2194,22 @@
       <c r="AC19" s="3">
         <v>3.6112540415466028</v>
       </c>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG19" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>647.267642730597</v>
+      </c>
+      <c r="AL19" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>1.2643876292869631E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2014,8 +2238,22 @@
       <c r="AC20" s="3">
         <v>5.1452804582357201</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG20" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>621.77777917476192</v>
+      </c>
+      <c r="AL20" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>1.500249643627292E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2044,8 +2282,22 @@
       <c r="AC21" s="3">
         <v>4.1966770886878431</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG21" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>713.96391797157673</v>
+      </c>
+      <c r="AL21" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="AM21" s="7">
+        <v>1.5764765878537479E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2074,8 +2326,22 @@
       <c r="AC22" s="3">
         <v>6.7120594901853607</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG22" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>629.47777012610879</v>
+      </c>
+      <c r="AL22" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>1.441839537184568E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2104,8 +2370,22 @@
       <c r="AC23" s="3">
         <v>4.3287615113481506</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG23" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>578.41242499142675</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="AM23" s="7">
+        <v>1.509449701528166E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2134,8 +2414,22 @@
       <c r="AC24" s="3">
         <v>5.1982881567088972</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG24" s="2">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>618.89389477845009</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="AM24" s="7">
+        <v>1.5336207509022851E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2164,8 +2458,22 @@
       <c r="AC25" s="3">
         <v>4.0138514346091521</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG25" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>764.87333790528373</v>
+      </c>
+      <c r="AL25" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AM25" s="7">
+        <v>1.474895629799098E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2194,8 +2502,22 @@
       <c r="AC26" s="3">
         <v>4.0425497716584466</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG26" s="2">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>664.39289952184947</v>
+      </c>
+      <c r="AL26" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="AM26" s="7">
+        <v>1.262031848733562E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2224,8 +2546,22 @@
       <c r="AC27" s="3">
         <v>6.1936983423564698</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG27" s="2">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>725.6617117194337</v>
+      </c>
+      <c r="AL27" s="2">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="AM27" s="7">
+        <v>1.476345195431822E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2254,8 +2590,22 @@
       <c r="AC28" s="3">
         <v>4.6722322128737552</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG28" s="2">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>663.14334509658181</v>
+      </c>
+      <c r="AL28" s="2">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="AM28" s="7">
+        <v>1.4657491251873541E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2284,8 +2634,22 @@
       <c r="AC29" s="3">
         <v>3.9321405315148299</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG29" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>680.11554510991641</v>
+      </c>
+      <c r="AL29" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="AM29" s="7">
+        <v>1.4076654286931159E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2314,8 +2678,22 @@
       <c r="AC30" s="3">
         <v>3.7253200699327489</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG30" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>737.79259177239203</v>
+      </c>
+      <c r="AL30" s="2">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="AM30" s="7">
+        <v>1.472421805364627E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2344,8 +2722,22 @@
       <c r="AC31" s="3">
         <v>5.8917632679430634</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG31" s="2">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>760.79983469539263</v>
+      </c>
+      <c r="AL31" s="2">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="AM31" s="7">
+        <v>1.240786094302713E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2374,8 +2766,22 @@
       <c r="AC32" s="3">
         <v>6.0119221052694387</v>
       </c>
-    </row>
-    <row r="33" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG32" s="2">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>737.56574456128226</v>
+      </c>
+      <c r="AL32" s="2">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="AM32" s="7">
+        <v>1.5970802776296531E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2404,8 +2810,22 @@
       <c r="AC33" s="3">
         <v>6.3059982966995847</v>
       </c>
-    </row>
-    <row r="34" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG33" s="2">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>634.86359574427468</v>
+      </c>
+      <c r="AL33" s="2">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="AM33" s="7">
+        <v>1.54224184534815E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2434,8 +2854,22 @@
       <c r="AC34" s="3">
         <v>4.6646465355334668</v>
       </c>
-    </row>
-    <row r="35" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG34" s="2">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>635.81379533851396</v>
+      </c>
+      <c r="AL34" s="2">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="AM34" s="7">
+        <v>1.5630562245236091E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2464,8 +2898,22 @@
       <c r="AC35" s="3">
         <v>4.9014234534385333</v>
       </c>
-    </row>
-    <row r="36" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG35" s="2">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>714.13229092848621</v>
+      </c>
+      <c r="AL35" s="2">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AM35" s="7">
+        <v>1.369150992825866E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2494,8 +2942,22 @@
       <c r="AC36" s="3">
         <v>5.9797209369940214</v>
       </c>
-    </row>
-    <row r="37" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG36" s="2">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>658.638481064502</v>
+      </c>
+      <c r="AL36" s="2">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="AM36" s="7">
+        <v>1.5801537648952211E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2524,8 +2986,22 @@
       <c r="AC37" s="3">
         <v>5.792382727507662</v>
       </c>
-    </row>
-    <row r="38" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG37" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>628.66810035432547</v>
+      </c>
+      <c r="AL37" s="2">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="AM37" s="7">
+        <v>1.400923890919964E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2554,8 +3030,22 @@
       <c r="AC38" s="3">
         <v>4.9436380826786142</v>
       </c>
-    </row>
-    <row r="39" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG38" s="2">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>691.2681756010204</v>
+      </c>
+      <c r="AL38" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="AM38" s="7">
+        <v>1.4118387986231599E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2584,8 +3074,22 @@
       <c r="AC39" s="3">
         <v>5.7337633763996454</v>
       </c>
-    </row>
-    <row r="40" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG39" s="2">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>590.3439468320181</v>
+      </c>
+      <c r="AL39" s="2">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="AM39" s="7">
+        <v>1.5112653591705979E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2614,8 +3118,22 @@
       <c r="AC40" s="3">
         <v>4.5596540921271753</v>
       </c>
-    </row>
-    <row r="41" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG40" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>782.92041680953912</v>
+      </c>
+      <c r="AL40" s="2">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="AM40" s="7">
+        <v>1.517123846872466E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2644,8 +3162,22 @@
       <c r="AC41" s="3">
         <v>4.5176835221616498</v>
       </c>
-    </row>
-    <row r="42" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG41" s="2">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>554.39379443364896</v>
+      </c>
+      <c r="AL41" s="2">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="AM41" s="7">
+        <v>1.476037473275689E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2674,8 +3206,22 @@
       <c r="AC42" s="3">
         <v>5.4713672306269023</v>
       </c>
-    </row>
-    <row r="43" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG42" s="2">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>674.46166061835572</v>
+      </c>
+      <c r="AL42" s="2">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="AM42" s="7">
+        <v>1.35835201285705E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2704,8 +3250,22 @@
       <c r="AC43" s="3">
         <v>7.6901522341726434</v>
       </c>
-    </row>
-    <row r="44" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG43" s="2">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>758.90199641863762</v>
+      </c>
+      <c r="AL43" s="2">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="AM43" s="7">
+        <v>1.4840098577900279E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2734,8 +3294,22 @@
       <c r="AC44" s="3">
         <v>6.0697946038583011</v>
       </c>
-    </row>
-    <row r="45" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG44" s="2">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>553.65557658970465</v>
+      </c>
+      <c r="AL44" s="2">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="AM44" s="7">
+        <v>1.3994543294981231E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2764,8 +3338,22 @@
       <c r="AC45" s="3">
         <v>3.495243033910119</v>
       </c>
-    </row>
-    <row r="46" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG45" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="AH45" s="3">
+        <v>626.60706795062208</v>
+      </c>
+      <c r="AL45" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AM45" s="7">
+        <v>1.3071864977924441E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2794,8 +3382,22 @@
       <c r="AC46" s="3">
         <v>3.3507122042945379</v>
       </c>
-    </row>
-    <row r="47" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG46" s="2">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>731.99833228559351</v>
+      </c>
+      <c r="AL46" s="2">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="AM46" s="7">
+        <v>1.6755739807434991E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2824,8 +3426,22 @@
       <c r="AC47" s="3">
         <v>5.6716234844698228</v>
       </c>
-    </row>
-    <row r="48" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG47" s="2">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>727.63108064731125</v>
+      </c>
+      <c r="AL47" s="2">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="AM47" s="7">
+        <v>1.568276857642148E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2854,8 +3470,22 @@
       <c r="AC48" s="3">
         <v>6.5354198051125696</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG48" s="2">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>705.63337748123513</v>
+      </c>
+      <c r="AL48" s="2">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="AM48" s="7">
+        <v>1.6449961287985889E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2884,8 +3514,22 @@
       <c r="AC49" s="3">
         <v>5.9281584144604409</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG49" s="2">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>633.45948408389461</v>
+      </c>
+      <c r="AL49" s="2">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="AM49" s="7">
+        <v>1.4379767743174479E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2914,8 +3558,22 @@
       <c r="AC50" s="3">
         <v>3.7551740058713809</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG50" s="2">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>652.39954656722603</v>
+      </c>
+      <c r="AL50" s="2">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="AM50" s="7">
+        <v>1.592980329245486E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2944,8 +3602,22 @@
       <c r="AC51" s="3">
         <v>3.6610938081545852</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG51" s="2">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="AH51" s="3">
+        <v>652.24128924257923</v>
+      </c>
+      <c r="AL51" s="2">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="AM51" s="7">
+        <v>1.42464232419554E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2974,8 +3646,22 @@
       <c r="AC52" s="3">
         <v>5.8907241142398226</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG52" s="2">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="AH52" s="3">
+        <v>734.77190888482414</v>
+      </c>
+      <c r="AL52" s="2">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="AM52" s="7">
+        <v>1.681561823577752E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3004,8 +3690,22 @@
       <c r="AC53" s="3">
         <v>4.1665411501256964</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG53" s="2">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="AH53" s="3">
+        <v>627.76590567493338</v>
+      </c>
+      <c r="AL53" s="2">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="AM53" s="7">
+        <v>1.5869861008039881E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3034,8 +3734,22 @@
       <c r="AC54" s="3">
         <v>4.3969336595682433</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG54" s="2">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="AH54" s="3">
+        <v>714.55680930201447</v>
+      </c>
+      <c r="AL54" s="2">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="AM54" s="7">
+        <v>1.4491594374452441E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3064,8 +3778,25 @@
       <c r="AC55" s="3">
         <v>5.2757479931318736</v>
       </c>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG55" s="2">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="AH55" s="3">
+        <v>722.13475459100005</v>
+      </c>
+      <c r="AL55" s="2">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="AM55" s="7">
+        <v>1.420052658942822E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="AH56" s="6"/>
+    </row>
+    <row r="57" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>1</v>
       </c>
@@ -3094,8 +3825,22 @@
         <f>AVERAGE(AC6:AC55)</f>
         <v>5.004877967075954</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AG57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="3">
+        <f>AVERAGE(AH6:AH55)</f>
+        <v>665.15273994932681</v>
+      </c>
+      <c r="AL57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM57" s="7">
+        <f>AVERAGE(AM6:AM55)</f>
+        <v>1.494350600604522E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
@@ -3123,6 +3868,20 @@
       <c r="AC58" s="3">
         <f>_xlfn.STDEV.S(AC6:AC55)</f>
         <v>1.0312948556882169</v>
+      </c>
+      <c r="AG58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH58" s="3">
+        <f>_xlfn.STDEV.S(AH6:AH55)</f>
+        <v>59.115938211582161</v>
+      </c>
+      <c r="AL58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM58" s="7">
+        <f>_xlfn.STDEV.S(AM6:AM55)</f>
+        <v>1.1844165185558848E-4</v>
       </c>
     </row>
   </sheetData>
